--- a/results/mp/tinybert/home-spam/confidence/84/stop-words-topk-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/84/stop-words-topk-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,67 +52,70 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>pleased</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>beautiful</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>best</t>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
   <si>
     <t>loved</t>
   </si>
   <si>
-    <t>salad</t>
-  </si>
-  <si>
     <t>happy</t>
   </si>
   <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>family</t>
   </si>
   <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>cakes</t>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>cake</t>
   </si>
   <si>
     <t>sturdy</t>
   </si>
   <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>cooke</t>
+    <t>cheese</t>
   </si>
   <si>
     <t>potatoes</t>
@@ -121,42 +124,36 @@
     <t>ever</t>
   </si>
   <si>
-    <t>cheese</t>
-  </si>
-  <si>
     <t>gift</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>bread</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>years</t>
   </si>
   <si>
     <t>old</t>
   </si>
   <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>tea</t>
+    <t>cooking</t>
   </si>
   <si>
     <t>easy</t>
   </si>
   <si>
+    <t>kitchen</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
-    <t>kitchen</t>
-  </si>
-  <si>
     <t>pan</t>
   </si>
   <si>
-    <t>keeps</t>
-  </si>
-  <si>
     <t>works</t>
   </si>
   <si>
@@ -166,10 +163,10 @@
     <t>recommend</t>
   </si>
   <si>
+    <t>bought</t>
+  </si>
+  <si>
     <t>little</t>
-  </si>
-  <si>
-    <t>bought</t>
   </si>
   <si>
     <t>clean</t>
@@ -545,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -556,7 +553,7 @@
         <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -614,13 +611,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.2635658914728682</v>
+        <v>0.2868217054263566</v>
       </c>
       <c r="C3">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D3">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -632,19 +629,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K3">
-        <v>0.956989247311828</v>
+        <v>0.9247311827956989</v>
       </c>
       <c r="L3">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M3">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -656,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -664,13 +661,13 @@
         <v>11</v>
       </c>
       <c r="K4">
-        <v>0.8984375</v>
+        <v>0.890625</v>
       </c>
       <c r="L4">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M4">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -682,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -690,13 +687,13 @@
         <v>12</v>
       </c>
       <c r="K5">
-        <v>0.8840579710144928</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L5">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="M5">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -708,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -742,13 +739,13 @@
         <v>14</v>
       </c>
       <c r="K7">
-        <v>0.8260869565217391</v>
+        <v>0.855072463768116</v>
       </c>
       <c r="L7">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="M7">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -760,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -768,13 +765,13 @@
         <v>15</v>
       </c>
       <c r="K8">
-        <v>0.7402597402597403</v>
+        <v>0.7532467532467533</v>
       </c>
       <c r="L8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -786,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -794,13 +791,13 @@
         <v>16</v>
       </c>
       <c r="K9">
-        <v>0.7272727272727273</v>
+        <v>0.7186147186147186</v>
       </c>
       <c r="L9">
-        <v>32</v>
+        <v>166</v>
       </c>
       <c r="M9">
-        <v>32</v>
+        <v>166</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -812,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -820,13 +817,13 @@
         <v>17</v>
       </c>
       <c r="K10">
-        <v>0.7111111111111111</v>
+        <v>0.6949152542372882</v>
       </c>
       <c r="L10">
-        <v>32</v>
+        <v>205</v>
       </c>
       <c r="M10">
-        <v>32</v>
+        <v>205</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -838,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -846,13 +843,13 @@
         <v>18</v>
       </c>
       <c r="K11">
-        <v>0.7056277056277056</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L11">
-        <v>163</v>
+        <v>30</v>
       </c>
       <c r="M11">
-        <v>163</v>
+        <v>30</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -864,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>68</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -872,13 +869,13 @@
         <v>19</v>
       </c>
       <c r="K12">
-        <v>0.676056338028169</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="L12">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="M12">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -890,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -898,13 +895,13 @@
         <v>20</v>
       </c>
       <c r="K13">
-        <v>0.6712328767123288</v>
+        <v>0.6438356164383562</v>
       </c>
       <c r="L13">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M13">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -916,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -924,13 +921,13 @@
         <v>21</v>
       </c>
       <c r="K14">
-        <v>0.6514285714285715</v>
+        <v>0.6404494382022472</v>
       </c>
       <c r="L14">
-        <v>114</v>
+        <v>798</v>
       </c>
       <c r="M14">
-        <v>114</v>
+        <v>798</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -942,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>61</v>
+        <v>448</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -950,7 +947,7 @@
         <v>22</v>
       </c>
       <c r="K15">
-        <v>0.6470588235294118</v>
+        <v>0.6197183098591549</v>
       </c>
       <c r="L15">
         <v>44</v>
@@ -968,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -976,13 +973,13 @@
         <v>23</v>
       </c>
       <c r="K16">
-        <v>0.6428571428571429</v>
+        <v>0.6</v>
       </c>
       <c r="L16">
-        <v>801</v>
+        <v>105</v>
       </c>
       <c r="M16">
-        <v>801</v>
+        <v>105</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -994,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>445</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1002,13 +999,13 @@
         <v>24</v>
       </c>
       <c r="K17">
-        <v>0.6372881355932203</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L17">
-        <v>188</v>
+        <v>41</v>
       </c>
       <c r="M17">
-        <v>188</v>
+        <v>41</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1020,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>107</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1028,13 +1025,13 @@
         <v>25</v>
       </c>
       <c r="K18">
-        <v>0.6153846153846154</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L18">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M18">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1046,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1054,13 +1051,13 @@
         <v>26</v>
       </c>
       <c r="K19">
-        <v>0.5571428571428572</v>
+        <v>0.578125</v>
       </c>
       <c r="L19">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M19">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1072,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1080,13 +1077,13 @@
         <v>27</v>
       </c>
       <c r="K20">
-        <v>0.5555555555555556</v>
+        <v>0.5614035087719298</v>
       </c>
       <c r="L20">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M20">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1098,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1106,25 +1103,25 @@
         <v>28</v>
       </c>
       <c r="K21">
-        <v>0.5263157894736842</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L21">
+        <v>38</v>
+      </c>
+      <c r="M21">
+        <v>38</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>30</v>
-      </c>
-      <c r="M21">
-        <v>30</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>27</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1132,13 +1129,13 @@
         <v>29</v>
       </c>
       <c r="K22">
-        <v>0.515625</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L22">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M22">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1150,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1158,13 +1155,13 @@
         <v>30</v>
       </c>
       <c r="K23">
-        <v>0.4850299401197605</v>
+        <v>0.5299145299145299</v>
       </c>
       <c r="L23">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="M23">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1176,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>86</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1184,13 +1181,13 @@
         <v>31</v>
       </c>
       <c r="K24">
-        <v>0.4807692307692308</v>
+        <v>0.5096153846153846</v>
       </c>
       <c r="L24">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M24">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1202,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1210,13 +1207,13 @@
         <v>32</v>
       </c>
       <c r="K25">
-        <v>0.4786324786324787</v>
+        <v>0.5089820359281437</v>
       </c>
       <c r="L25">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="M25">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1228,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>61</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1236,13 +1233,13 @@
         <v>33</v>
       </c>
       <c r="K26">
-        <v>0.4761904761904762</v>
+        <v>0.4698795180722892</v>
       </c>
       <c r="L26">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M26">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1254,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1262,13 +1259,13 @@
         <v>34</v>
       </c>
       <c r="K27">
-        <v>0.4586466165413534</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="L27">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="M27">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1280,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>72</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1288,13 +1285,13 @@
         <v>35</v>
       </c>
       <c r="K28">
-        <v>0.4578313253012048</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L28">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="M28">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1306,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>45</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1340,13 +1337,13 @@
         <v>37</v>
       </c>
       <c r="K30">
-        <v>0.39</v>
+        <v>0.357843137254902</v>
       </c>
       <c r="L30">
-        <v>39</v>
+        <v>146</v>
       </c>
       <c r="M30">
-        <v>39</v>
+        <v>146</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1358,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>61</v>
+        <v>262</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1366,13 +1363,13 @@
         <v>38</v>
       </c>
       <c r="K31">
-        <v>0.3480392156862745</v>
+        <v>0.35</v>
       </c>
       <c r="L31">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="M31">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1384,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>266</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1392,13 +1389,13 @@
         <v>39</v>
       </c>
       <c r="K32">
-        <v>0.3383458646616541</v>
+        <v>0.3307392996108949</v>
       </c>
       <c r="L32">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="M32">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1410,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>88</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1418,13 +1415,13 @@
         <v>40</v>
       </c>
       <c r="K33">
-        <v>0.2996108949416342</v>
+        <v>0.3007518796992481</v>
       </c>
       <c r="L33">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="M33">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1436,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>180</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1444,13 +1441,13 @@
         <v>41</v>
       </c>
       <c r="K34">
-        <v>0.2661870503597122</v>
+        <v>0.2972972972972973</v>
       </c>
       <c r="L34">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M34">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1462,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>102</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1470,13 +1467,13 @@
         <v>42</v>
       </c>
       <c r="K35">
-        <v>0.2561643835616438</v>
+        <v>0.2849315068493151</v>
       </c>
       <c r="L35">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="M35">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1488,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>543</v>
+        <v>522</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1496,13 +1493,13 @@
         <v>43</v>
       </c>
       <c r="K36">
-        <v>0.2378902045209903</v>
+        <v>0.2583732057416268</v>
       </c>
       <c r="L36">
-        <v>221</v>
+        <v>54</v>
       </c>
       <c r="M36">
-        <v>221</v>
+        <v>54</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1514,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>708</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1522,13 +1519,13 @@
         <v>44</v>
       </c>
       <c r="K37">
-        <v>0.2296650717703349</v>
+        <v>0.2314316469321852</v>
       </c>
       <c r="L37">
-        <v>48</v>
+        <v>215</v>
       </c>
       <c r="M37">
-        <v>48</v>
+        <v>215</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1540,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>161</v>
+        <v>714</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1548,13 +1545,13 @@
         <v>45</v>
       </c>
       <c r="K38">
-        <v>0.2037617554858934</v>
+        <v>0.1974921630094044</v>
       </c>
       <c r="L38">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M38">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1566,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1574,13 +1571,13 @@
         <v>46</v>
       </c>
       <c r="K39">
-        <v>0.1920529801324503</v>
+        <v>0.1774834437086093</v>
       </c>
       <c r="L39">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="M39">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1592,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>122</v>
+        <v>621</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1600,13 +1597,13 @@
         <v>47</v>
       </c>
       <c r="K40">
-        <v>0.1801324503311258</v>
+        <v>0.1624040920716112</v>
       </c>
       <c r="L40">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="M40">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1618,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>619</v>
+        <v>655</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1626,25 +1623,25 @@
         <v>48</v>
       </c>
       <c r="K41">
-        <v>0.170076726342711</v>
+        <v>0.1108108108108108</v>
       </c>
       <c r="L41">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="M41">
-        <v>133</v>
+        <v>42</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41">
-        <v>649</v>
+        <v>329</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1652,7 +1649,7 @@
         <v>49</v>
       </c>
       <c r="K42">
-        <v>0.1212938005390836</v>
+        <v>0.1094890510948905</v>
       </c>
       <c r="L42">
         <v>45</v>
@@ -1670,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>326</v>
+        <v>366</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1678,13 +1675,13 @@
         <v>50</v>
       </c>
       <c r="K43">
-        <v>0.1168384879725086</v>
+        <v>0.1030927835051546</v>
       </c>
       <c r="L43">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M43">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1696,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1704,13 +1701,13 @@
         <v>51</v>
       </c>
       <c r="K44">
-        <v>0.1143552311435523</v>
+        <v>0.09649122807017543</v>
       </c>
       <c r="L44">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M44">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1722,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>364</v>
+        <v>412</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1730,13 +1727,13 @@
         <v>52</v>
       </c>
       <c r="K45">
-        <v>0.09210526315789473</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L45">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M45">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1748,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>414</v>
+        <v>400</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1756,25 +1753,25 @@
         <v>53</v>
       </c>
       <c r="K46">
-        <v>0.07727272727272727</v>
+        <v>0.06456241032998565</v>
       </c>
       <c r="L46">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="M46">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>406</v>
+        <v>652</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1782,25 +1779,25 @@
         <v>54</v>
       </c>
       <c r="K47">
-        <v>0.06456241032998565</v>
+        <v>0.05503731343283582</v>
       </c>
       <c r="L47">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="M47">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="N47">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>652</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1808,51 +1805,25 @@
         <v>55</v>
       </c>
       <c r="K48">
-        <v>0.05503731343283582</v>
+        <v>0.02508650519031142</v>
       </c>
       <c r="L48">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="M48">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="49" spans="10:17">
-      <c r="J49" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K49">
-        <v>0.0259515570934256</v>
-      </c>
-      <c r="L49">
-        <v>30</v>
-      </c>
-      <c r="M49">
-        <v>31</v>
-      </c>
-      <c r="N49">
-        <v>0.97</v>
-      </c>
-      <c r="O49">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P49" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q49">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
   </sheetData>
